--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2420870221358681</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.586206408885863</v>
+        <v>-1.585558673127156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.036853504008394</v>
+        <v>0.03798856638782214</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1774439555290664</v>
+        <v>-0.1730738738801666</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2714478542487595</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.647053925360279</v>
+        <v>-1.650130975174473</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01093561077684658</v>
+        <v>-0.008279406229608788</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.199634699511191</v>
+        <v>-0.1954713809717087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3100712972842501</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.83477836085318</v>
+        <v>-1.837183278081598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03732070324678301</v>
+        <v>0.04075821618093507</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2203219890251316</v>
+        <v>-0.2151242450178847</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.328265963759676</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.979265519571412</v>
+        <v>-1.98345018533458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05714983436853913</v>
+        <v>0.05816779197803164</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2420687107545836</v>
+        <v>-0.2385927728177965</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3134887406346594</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.088396796499911</v>
+        <v>-2.094126391337283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1659212580977575</v>
+        <v>0.1665750930632315</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2390526530080645</v>
+        <v>-0.2360121984344754</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2726255703499906</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.986833415328502</v>
+        <v>-1.99308876178923</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2845794959970619</v>
+        <v>0.2851973456426077</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2483759004728353</v>
+        <v>-0.2466547043230523</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2251902870948719</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.758444348475454</v>
+        <v>-1.76755473362404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3946604194192584</v>
+        <v>0.3923354017994948</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.258362741633908</v>
+        <v>-0.2565701847649455</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1834889499159528</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.482158820798058</v>
+        <v>-1.488927110547932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5543785172772422</v>
+        <v>0.5527677167699505</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2329449073511094</v>
+        <v>-0.2309827925340109</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.149514098724689</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.023262432581617</v>
+        <v>-1.028089954738078</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5928761004729028</v>
+        <v>0.5910774443971728</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1926370795868605</v>
+        <v>-0.1929310613530531</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1177015482226974</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5321158786614458</v>
+        <v>-0.537959528665369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.578137367319286</v>
+        <v>0.5721265990499339</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1480616368474054</v>
+        <v>-0.1473724264826801</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08089810630378963</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02915935467121725</v>
+        <v>0.02794012323839789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4618517208525315</v>
+        <v>0.4520143102572621</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04474473373034493</v>
+        <v>-0.04279786693016513</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03271483818108742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.522861476226963</v>
+        <v>0.5205919613887835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3191577289239396</v>
+        <v>0.3115507982435378</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05483030603486626</v>
+        <v>0.05711262920725749</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02389754717579526</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05151632200511</v>
+        <v>1.051435812475779</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08727381659312571</v>
+        <v>0.07850986638893287</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2024396486973707</v>
+        <v>0.2081637542486513</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.07742281027005449</v>
       </c>
       <c r="E15" t="n">
-        <v>1.660951501894476</v>
+        <v>1.661578500350173</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2361445512213297</v>
+        <v>-0.2495396291240706</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3839672901145115</v>
+        <v>0.3878036911712568</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.12217738887593</v>
       </c>
       <c r="E16" t="n">
-        <v>2.19180694147433</v>
+        <v>2.195472564741586</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4714592673588515</v>
+        <v>-0.4833679685723573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5590541691851928</v>
+        <v>0.5649679600669419</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1622511091711656</v>
       </c>
       <c r="E17" t="n">
-        <v>2.690526880437682</v>
+        <v>2.690492724879784</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6812335551575482</v>
+        <v>-0.6918809404115391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6781887551330374</v>
+        <v>0.6827595006845874</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.201657813557247</v>
       </c>
       <c r="E18" t="n">
-        <v>3.176565348690088</v>
+        <v>3.175660226405794</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.004387217398295</v>
+        <v>-1.019361379933137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8602695946039887</v>
+        <v>0.865187994941285</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2420867124416924</v>
       </c>
       <c r="E19" t="n">
-        <v>3.572139162325869</v>
+        <v>3.568106366811211</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.342553467176518</v>
+        <v>-1.361007227172208</v>
       </c>
       <c r="G19" t="n">
-        <v>1.06263456602155</v>
+        <v>1.068321466411549</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2837016785647078</v>
       </c>
       <c r="E20" t="n">
-        <v>3.956396507725267</v>
+        <v>3.954754601263461</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.586245443809175</v>
+        <v>-1.606110560250859</v>
       </c>
       <c r="G20" t="n">
-        <v>1.250516970969729</v>
+        <v>1.257044951972963</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3242534796432336</v>
       </c>
       <c r="E21" t="n">
-        <v>4.278369973456506</v>
+        <v>4.273822404890672</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.881064021170237</v>
+        <v>-1.901437201535652</v>
       </c>
       <c r="G21" t="n">
-        <v>1.331425998343742</v>
+        <v>1.338616353201925</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3603661725327679</v>
       </c>
       <c r="E22" t="n">
-        <v>4.572659139670151</v>
+        <v>4.567674867899766</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.100082266745727</v>
+        <v>-2.120106572484043</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486931374087427</v>
+        <v>1.493153174910934</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3899610651186972</v>
       </c>
       <c r="E23" t="n">
-        <v>4.729763727428269</v>
+        <v>4.72707031771975</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.302003215910617</v>
+        <v>-2.32618230129894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.599038453997781</v>
+        <v>1.604435642066324</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.412527012786624</v>
       </c>
       <c r="E24" t="n">
-        <v>4.888445570056458</v>
+        <v>4.889888642377644</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.524149134716471</v>
+        <v>-2.545972096530516</v>
       </c>
       <c r="G24" t="n">
-        <v>1.736201685229621</v>
+        <v>1.740504675604079</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.4279639779682962</v>
       </c>
       <c r="E25" t="n">
-        <v>4.979296914382141</v>
+        <v>4.976873089612745</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.685559152531753</v>
+        <v>-2.708881909289922</v>
       </c>
       <c r="G25" t="n">
-        <v>1.786464028359075</v>
+        <v>1.792564454967909</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4361489664105971</v>
       </c>
       <c r="E26" t="n">
-        <v>4.96212276796627</v>
+        <v>4.959318352694583</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.791832951089689</v>
+        <v>-2.811133280984704</v>
       </c>
       <c r="G26" t="n">
-        <v>1.857443547115631</v>
+        <v>1.863354898314673</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4360677745648279</v>
       </c>
       <c r="E27" t="n">
-        <v>4.938700594137791</v>
+        <v>4.936264570954859</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.858351510016508</v>
+        <v>-2.875580549293288</v>
       </c>
       <c r="G27" t="n">
-        <v>1.862300955385252</v>
+        <v>1.865341409958841</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4272569833417227</v>
       </c>
       <c r="E28" t="n">
-        <v>4.864613529533204</v>
+        <v>4.86293014846538</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.983874100172274</v>
+        <v>-2.998780866472335</v>
       </c>
       <c r="G28" t="n">
-        <v>1.887978005955669</v>
+        <v>1.8896638267062</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.4104914378138196</v>
       </c>
       <c r="E29" t="n">
-        <v>4.806984564469987</v>
+        <v>4.805508556432257</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.997583592183878</v>
+        <v>-3.014692477087338</v>
       </c>
       <c r="G29" t="n">
-        <v>1.866266659625468</v>
+        <v>1.870327511491257</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3871756617531168</v>
       </c>
       <c r="E30" t="n">
-        <v>4.746284038878668</v>
+        <v>4.746903718286243</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.96627270432234</v>
+        <v>-2.978303084710857</v>
       </c>
       <c r="G30" t="n">
-        <v>1.84542323041828</v>
+        <v>1.844944442687033</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3583994886849563</v>
       </c>
       <c r="E31" t="n">
-        <v>4.606038878467219</v>
+        <v>4.609020170735163</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.95898049271114</v>
+        <v>-2.971428363802891</v>
       </c>
       <c r="G31" t="n">
-        <v>1.813370069093139</v>
+        <v>1.813349941710806</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3248326483406828</v>
       </c>
       <c r="E32" t="n">
-        <v>4.509632376617714</v>
+        <v>4.511309658478771</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.929286504563661</v>
+        <v>-2.942727326517158</v>
       </c>
       <c r="G32" t="n">
-        <v>1.779700008053939</v>
+        <v>1.780890573214952</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2868437270667365</v>
       </c>
       <c r="E33" t="n">
-        <v>4.244451064781193</v>
+        <v>4.243226344062283</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.88346316411958</v>
+        <v>-2.899874909689516</v>
       </c>
       <c r="G33" t="n">
-        <v>1.699487510092772</v>
+        <v>1.701527084835817</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2452467911150438</v>
       </c>
       <c r="E34" t="n">
-        <v>4.103234910652362</v>
+        <v>4.100285334259608</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.776891114350715</v>
+        <v>-2.788963274305589</v>
       </c>
       <c r="G34" t="n">
-        <v>1.599625807609489</v>
+        <v>1.600158878280967</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2004985645122616</v>
       </c>
       <c r="E35" t="n">
-        <v>3.897881937839411</v>
+        <v>3.89594482977006</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.713483760795987</v>
+        <v>-2.725360136213625</v>
       </c>
       <c r="G35" t="n">
-        <v>1.532198466874315</v>
+        <v>1.530748075505008</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.153275013058135</v>
       </c>
       <c r="E36" t="n">
-        <v>3.746832642560048</v>
+        <v>3.743121885162713</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.737416438230904</v>
+        <v>-2.747279465494596</v>
       </c>
       <c r="G36" t="n">
-        <v>1.476297407088325</v>
+        <v>1.476172373349592</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.1051540586412455</v>
       </c>
       <c r="E37" t="n">
-        <v>3.523502867720626</v>
+        <v>3.520544752438397</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.695476462735677</v>
+        <v>-2.702576549333701</v>
       </c>
       <c r="G37" t="n">
-        <v>1.387551508938776</v>
+        <v>1.388545679641875</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.05797367858149843</v>
       </c>
       <c r="E38" t="n">
-        <v>3.341647698900071</v>
+        <v>3.337996713729057</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.638509871527408</v>
+        <v>-2.646464456993557</v>
       </c>
       <c r="G38" t="n">
-        <v>1.328134256451333</v>
+        <v>1.329569399803721</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.01312655860585318</v>
       </c>
       <c r="E39" t="n">
-        <v>3.126200538886941</v>
+        <v>3.121204068703021</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.617145570062277</v>
+        <v>-2.623277102625626</v>
       </c>
       <c r="G39" t="n">
-        <v>1.244553166592486</v>
+        <v>1.247419793773202</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.02805412017372214</v>
       </c>
       <c r="E40" t="n">
-        <v>2.930231805606436</v>
+        <v>2.923754448019372</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.610760310497402</v>
+        <v>-2.618702087629338</v>
       </c>
       <c r="G40" t="n">
-        <v>1.144706712126122</v>
+        <v>1.146107089999936</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.06495769051665876</v>
       </c>
       <c r="E41" t="n">
-        <v>2.707940115758839</v>
+        <v>2.705001517938267</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.567334568233617</v>
+        <v>-2.572665274948395</v>
       </c>
       <c r="G41" t="n">
-        <v>1.070655022920787</v>
+        <v>1.072123711910396</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.09790799367425242</v>
       </c>
       <c r="E42" t="n">
-        <v>2.504559626414492</v>
+        <v>2.4974272140206</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.525051817318058</v>
+        <v>-2.531277277665625</v>
       </c>
       <c r="G42" t="n">
-        <v>1.01572312709015</v>
+        <v>1.017585824836938</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1276803875592925</v>
       </c>
       <c r="E43" t="n">
-        <v>2.290689721271432</v>
+        <v>2.28397937398585</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.456892571770786</v>
+        <v>-2.464616607221123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9300493993893805</v>
+        <v>0.932863573391896</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1555389728001025</v>
       </c>
       <c r="E44" t="n">
-        <v>2.102371832960055</v>
+        <v>2.094215363749903</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.420171687506492</v>
+        <v>-2.43045007075105</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8703412147391293</v>
+        <v>0.873961093955629</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.182024108103112</v>
       </c>
       <c r="E45" t="n">
-        <v>1.9372205617136</v>
+        <v>1.927954036871766</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.390389260860884</v>
+        <v>-2.401022008018633</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7949934440957045</v>
+        <v>0.7980869617681706</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2078456794252438</v>
       </c>
       <c r="E46" t="n">
-        <v>1.804792754616031</v>
+        <v>1.793676340361621</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.283478705116424</v>
+        <v>-2.292521389069891</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7123827380335638</v>
+        <v>0.7122448959606187</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2328539120719468</v>
       </c>
       <c r="E47" t="n">
-        <v>1.623941515229404</v>
+        <v>1.617176275082915</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.175823436225655</v>
+        <v>-2.184463572532468</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6099056956883854</v>
+        <v>0.6103594766718859</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.256993410094035</v>
       </c>
       <c r="E48" t="n">
-        <v>1.518109299241434</v>
+        <v>1.512358357180377</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.16814758450878</v>
+        <v>-2.178196027658205</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5677967721656995</v>
+        <v>0.5691361579718381</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2800229789638776</v>
       </c>
       <c r="E49" t="n">
-        <v>1.387736924824507</v>
+        <v>1.381489507332577</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.071545908042716</v>
+        <v>-2.083063650102426</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5009134806741842</v>
+        <v>0.5005176421549746</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.302118041207436</v>
       </c>
       <c r="E50" t="n">
-        <v>1.282429240618541</v>
+        <v>1.279200320555836</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.007659766756741</v>
+        <v>-2.01939342073602</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4222068768639077</v>
+        <v>0.4227314086459111</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3237767536980146</v>
       </c>
       <c r="E51" t="n">
-        <v>1.17690869409639</v>
+        <v>1.17024470078224</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.986973697084154</v>
+        <v>-1.997390532322334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.360977550045847</v>
+        <v>0.3623242549001067</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3450503732321017</v>
       </c>
       <c r="E52" t="n">
-        <v>1.083318805932107</v>
+        <v>1.078651692913631</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.944424410832856</v>
+        <v>-1.953267040804349</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2910159888987842</v>
+        <v>0.2917997369684055</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3664988478712618</v>
       </c>
       <c r="E53" t="n">
-        <v>1.013835422595615</v>
+        <v>1.008516914294372</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.948473064285109</v>
+        <v>-1.958371466948053</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2410939815069557</v>
+        <v>0.242158293087881</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3882986257563101</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9181187410315117</v>
+        <v>0.9124928327091876</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.871815184028029</v>
+        <v>-1.880294301276181</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1843445220596094</v>
+        <v>0.1861309797218044</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4107198054492257</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8678893336186021</v>
+        <v>0.8646768814141701</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.893192903748049</v>
+        <v>-1.902750360752691</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1516167884659853</v>
+        <v>0.1524883651130583</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4344185554833407</v>
       </c>
       <c r="E56" t="n">
-        <v>0.828991032538318</v>
+        <v>0.8263494660873222</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.863473298932146</v>
+        <v>-1.872863027750683</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1177625313824076</v>
+        <v>0.1189329691610872</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.459817862038198</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7660136730606972</v>
+        <v>0.7624761331355585</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.840278015595418</v>
+        <v>-1.85230565134089</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02177931448256575</v>
+        <v>0.02457946030951608</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4876917495361415</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6739986000837782</v>
+        <v>0.6727830281750193</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.848657105852582</v>
+        <v>-1.859381341111844</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.004236851984122661</v>
+        <v>-0.002929182053174825</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5194634385879383</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5766418418198997</v>
+        <v>0.5759300643901347</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.856800156807846</v>
+        <v>-1.871028386355025</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02297849453923698</v>
+        <v>-0.01902864823661656</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5565599555754439</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4803390264854419</v>
+        <v>0.4800029601925537</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.826577977354303</v>
+        <v>-1.843059253881389</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07234486419454805</v>
+        <v>-0.06660185110228833</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6000772408219937</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4333556169141855</v>
+        <v>0.4336581375698526</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.773654550312197</v>
+        <v>-1.7905603316303</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1012776713374457</v>
+        <v>-0.0969807801697556</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6497934265762494</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4204289580911871</v>
+        <v>0.4229790364406708</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.705043353543455</v>
+        <v>-1.719800994238051</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1642836970868735</v>
+        <v>-0.160762625020007</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.705030486981597</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3695481553955107</v>
+        <v>0.3721659349401134</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.751096024161994</v>
+        <v>-1.768166484062818</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1914831096664532</v>
+        <v>-0.1859102644430062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7639075376458018</v>
       </c>
       <c r="E64" t="n">
-        <v>0.330493714621979</v>
+        <v>0.3334005965673603</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.691993490743753</v>
+        <v>-1.709745841961182</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2134695302218672</v>
+        <v>-0.2090628533323625</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8250961498883622</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2998531295841868</v>
+        <v>0.303091808377719</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.704474297552049</v>
+        <v>-1.719386858098539</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.22995141666963</v>
+        <v>-0.2255599877970439</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8874462689369045</v>
       </c>
       <c r="E66" t="n">
-        <v>0.296269845608292</v>
+        <v>0.3008729169557096</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.683942537810679</v>
+        <v>-1.699524791260238</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2597899560174984</v>
+        <v>-0.2545830632001003</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9491631079201228</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2471126787451055</v>
+        <v>0.2508136774116127</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.653867349240232</v>
+        <v>-1.66726852634974</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2833554612050131</v>
+        <v>-0.2791445688527446</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.007789506296829</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2241174493903502</v>
+        <v>0.2307735137357018</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.596430509190191</v>
+        <v>-1.610526385950515</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.332078364546355</v>
+        <v>-0.3266945947326999</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.061033765346108</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1502932605974421</v>
+        <v>0.1595207505159634</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.612240872972854</v>
+        <v>-1.626311742985431</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.318887000149648</v>
+        <v>-0.3121815322294799</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.106454104934011</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1936872869860361</v>
+        <v>0.2003781168099623</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.575759687534522</v>
+        <v>-1.588086184411601</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3454801515765401</v>
+        <v>-0.3387271098435856</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.141874239138681</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2263729360529645</v>
+        <v>0.2334284984415861</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.547058040328112</v>
+        <v>-1.55955714475671</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3811318448944943</v>
+        <v>-0.3751064385289002</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.166834741380286</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2343476489014454</v>
+        <v>0.2418539426701838</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.539682269584198</v>
+        <v>-1.553669580464061</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3799943428323592</v>
+        <v>-0.3757590536530207</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.182465593927693</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2966138408699779</v>
+        <v>0.3030033698795905</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.52518384517722</v>
+        <v>-1.537946435338173</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3973063313211761</v>
+        <v>-0.394103637847572</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.189554741440169</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3885654820965151</v>
+        <v>0.3959162460926827</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.501816564209648</v>
+        <v>-1.514568785719097</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4151940849288431</v>
+        <v>-0.4116669136552091</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.188424154228072</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4460328181803939</v>
+        <v>0.4514080491045745</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.492506125079089</v>
+        <v>-1.504764310840372</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3923806119357587</v>
+        <v>-0.3898049169178517</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.179021771752287</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5219807507697388</v>
+        <v>0.5290033774418159</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.510468898929996</v>
+        <v>-1.527632066773686</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3923647539981633</v>
+        <v>-0.3885021263523178</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.160942533803228</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5620799856625399</v>
+        <v>0.5684451178450826</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.444193698353199</v>
+        <v>-1.457931551676272</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3809281313884605</v>
+        <v>-0.3770947799350989</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.134350698018769</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6778282920130794</v>
+        <v>0.6825606665439675</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.479229981708314</v>
+        <v>-1.493688151350627</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3261853109676153</v>
+        <v>-0.3216218844641863</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.099635346278218</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8027113803392745</v>
+        <v>0.8055963051402928</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.417582249306004</v>
+        <v>-1.428962149292769</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3123279131918994</v>
+        <v>-0.3087275514370556</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.05686980228226</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8452222415879374</v>
+        <v>0.8488024759604484</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.373002537121812</v>
+        <v>-1.385365019318818</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.300849206055501</v>
+        <v>-0.2960479104881403</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.005373923700068</v>
       </c>
       <c r="E81" t="n">
-        <v>0.950059067031454</v>
+        <v>0.9578062794675078</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.258691813806368</v>
+        <v>-1.268098010483176</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2873833773542573</v>
+        <v>-0.2838415679843814</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9446306340989499</v>
       </c>
       <c r="E82" t="n">
-        <v>1.07582166097352</v>
+        <v>1.081996497904917</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.240555822483264</v>
+        <v>-1.251075124395138</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2269975708321391</v>
+        <v>-0.2231032273111028</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8741108834319719</v>
       </c>
       <c r="E83" t="n">
-        <v>1.160831185057311</v>
+        <v>1.165455603628414</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.12964174741663</v>
+        <v>-1.138470959133235</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2099978617298172</v>
+        <v>-0.2070299877167612</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.792526039449208</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311028421151257</v>
+        <v>1.314262830500052</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.054887429591681</v>
+        <v>-1.061718541171259</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1571067604835792</v>
+        <v>-0.154635361901396</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6989370707866155</v>
       </c>
       <c r="E85" t="n">
-        <v>1.445190842653497</v>
+        <v>1.448951003625649</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9049719768503919</v>
+        <v>-0.9137810611846641</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1172508839408006</v>
+        <v>-0.1147245924977101</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5950146476135204</v>
       </c>
       <c r="E86" t="n">
-        <v>1.51345316479514</v>
+        <v>1.512091821844638</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8045265802794612</v>
+        <v>-0.8094022861693851</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09705031112690488</v>
+        <v>-0.09638000830315877</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4839200189319038</v>
       </c>
       <c r="E87" t="n">
-        <v>1.649985738047223</v>
+        <v>1.649357519750172</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6920572074871193</v>
+        <v>-0.6971738320443588</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02643979437978222</v>
+        <v>-0.02449170773824892</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3707200129857077</v>
       </c>
       <c r="E88" t="n">
-        <v>1.794050221736468</v>
+        <v>1.794355791995518</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.537370955212307</v>
+        <v>-0.5432762072045818</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.00694733947159103</v>
+        <v>-0.005292624675573549</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2637184253454667</v>
       </c>
       <c r="E89" t="n">
-        <v>1.860770664407291</v>
+        <v>1.856499999828701</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4326329369184236</v>
+        <v>-0.4341101647975074</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04483858550837957</v>
+        <v>0.04652074673485072</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1712809655835084</v>
       </c>
       <c r="E90" t="n">
-        <v>1.985250595166156</v>
+        <v>1.980687778583404</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3041189908035473</v>
+        <v>-0.3074137822993403</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07332371087454413</v>
+        <v>0.0743703347558438</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0984329795469336</v>
       </c>
       <c r="E91" t="n">
-        <v>2.020931564676594</v>
+        <v>2.01880721095948</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1862890251832667</v>
+        <v>-0.1865311636919357</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09521010443897143</v>
+        <v>0.09585235091158714</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04720648634525238</v>
       </c>
       <c r="E92" t="n">
-        <v>2.033359308386012</v>
+        <v>2.029890079576669</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.09916978547860439</v>
+        <v>-0.1015228594494984</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1030860101378191</v>
+        <v>0.1017917584617597</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01805544607943271</v>
       </c>
       <c r="E93" t="n">
-        <v>2.022469174702676</v>
+        <v>2.019095093518906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1204108069608477</v>
+        <v>0.1202028240100766</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08636991415018509</v>
+        <v>0.08492806167035268</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.009890682504098651</v>
       </c>
       <c r="E94" t="n">
-        <v>1.93906801144347</v>
+        <v>1.936617350164296</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2606181522903377</v>
+        <v>0.2608828578640464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08041342882106356</v>
+        <v>0.08107214315195145</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01848671967061147</v>
       </c>
       <c r="E95" t="n">
-        <v>1.840140097516288</v>
+        <v>1.839110551413937</v>
       </c>
       <c r="F95" t="n">
-        <v>0.358212779618148</v>
+        <v>0.3590221443561927</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03353858513026831</v>
+        <v>0.03434977963034323</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03559372623934821</v>
       </c>
       <c r="E96" t="n">
-        <v>1.745698150166589</v>
+        <v>1.747308340753204</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3804023037589191</v>
+        <v>0.3833049162595631</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02624820328109877</v>
+        <v>0.02664404180030826</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05210078284376275</v>
       </c>
       <c r="E97" t="n">
-        <v>1.623248645340618</v>
+        <v>1.626662371368377</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4129696282145584</v>
+        <v>0.4170560967487704</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03460899591796115</v>
+        <v>0.03453519551607463</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06476835439921637</v>
       </c>
       <c r="E98" t="n">
-        <v>1.466297147672364</v>
+        <v>1.469698065365911</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4049034272645654</v>
+        <v>0.4099657688815742</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.01498487414977694</v>
+        <v>-0.01335211649812239</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07466904605794646</v>
       </c>
       <c r="E99" t="n">
-        <v>1.308607645985244</v>
+        <v>1.313280248289811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3583542812151536</v>
+        <v>0.3602120995965282</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.002046016913243636</v>
+        <v>-0.000556590620624879</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08731111305810516</v>
       </c>
       <c r="E100" t="n">
-        <v>1.198871937666087</v>
+        <v>1.205928109975385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3536999765308891</v>
+        <v>0.356002427085613</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.007875638741601574</v>
+        <v>-0.005833624315849076</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1028164108376173</v>
       </c>
       <c r="E101" t="n">
-        <v>1.087218638739234</v>
+        <v>1.095469645654282</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2986814719641538</v>
+        <v>0.3024642000013453</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07904362298727197</v>
+        <v>-0.07825316579020648</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.124109560574796</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9607607352256754</v>
+        <v>0.9663250415596479</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2908061761859829</v>
+        <v>0.2936758529700825</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09252774930881803</v>
+        <v>-0.09070896585075533</v>
       </c>
     </row>
   </sheetData>
